--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지4.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210A2BC-C748-4904-A752-4E76B9A64007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E84D0B-B63B-403B-ACE2-ED0EB9821F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1726">
   <si>
     <t>Time</t>
   </si>
@@ -5212,6 +5212,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -5583,20 +5586,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E868"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A710" workbookViewId="0">
-      <selection activeCell="E858" sqref="E858"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="60.375" customWidth="1"/>
+    <col min="2" max="2" width="60.35546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5610,10 +5612,10 @@
         <v>1724</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5642,14 +5644,14 @@
         <v>0.69586926698684692</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D2:D65" si="0">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D65" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5664,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5682,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5697,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5712,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5730,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5745,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5856,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5871,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5904,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5967,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5997,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -6012,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -6093,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -6108,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -6123,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -6156,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -6201,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -6231,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -6246,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6357,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -6375,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -6405,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -6468,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -6513,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -6543,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -6576,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -6636,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -6666,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -6696,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -6756,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6816,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6831,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -6951,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -6996,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -7011,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -7026,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -7041,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -7056,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -7071,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -7086,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -7101,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -7116,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -7146,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -7176,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -7236,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -7251,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -7266,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -7296,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -7311,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -7341,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -7356,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -7386,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -7416,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -7431,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -7506,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -7551,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -7566,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -7596,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -7626,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -7656,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -7716,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -7731,7 +7733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -7746,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -7761,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -7776,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -7791,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -7806,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -7866,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -7896,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -7911,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -7956,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -7971,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -7986,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -8016,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -8031,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -8046,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -8091,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -8106,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -8136,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>332</v>
       </c>
@@ -8151,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -8211,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -8226,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -8271,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -8286,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -8331,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -8346,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -8376,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -8391,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -8406,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>369</v>
       </c>
@@ -8436,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>371</v>
       </c>
@@ -8451,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -8466,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>375</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>377</v>
       </c>
@@ -8496,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>379</v>
       </c>
@@ -8511,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>381</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>383</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>385</v>
       </c>
@@ -8556,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>387</v>
       </c>
@@ -8571,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>389</v>
       </c>
@@ -8586,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>391</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>393</v>
       </c>
@@ -8616,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>395</v>
       </c>
@@ -8631,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>397</v>
       </c>
@@ -8646,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>399</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -8679,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>403</v>
       </c>
@@ -8694,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>405</v>
       </c>
@@ -8709,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>407</v>
       </c>
@@ -8727,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>409</v>
       </c>
@@ -8745,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>411</v>
       </c>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>413</v>
       </c>
@@ -8778,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>415</v>
       </c>
@@ -8793,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>417</v>
       </c>
@@ -8808,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -8826,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>423</v>
       </c>
@@ -8856,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>425</v>
       </c>
@@ -8871,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>427</v>
       </c>
@@ -8886,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>431</v>
       </c>
@@ -8916,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>433</v>
       </c>
@@ -8931,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>435</v>
       </c>
@@ -8946,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>437</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>439</v>
       </c>
@@ -8976,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -8994,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>443</v>
       </c>
@@ -9009,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>445</v>
       </c>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>447</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -9054,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>451</v>
       </c>
@@ -9069,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>453</v>
       </c>
@@ -9084,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>455</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>457</v>
       </c>
@@ -9117,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>459</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>461</v>
       </c>
@@ -9147,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>463</v>
       </c>
@@ -9162,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>465</v>
       </c>
@@ -9177,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>467</v>
       </c>
@@ -9192,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>469</v>
       </c>
@@ -9207,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>471</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>473</v>
       </c>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>475</v>
       </c>
@@ -9252,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>477</v>
       </c>
@@ -9267,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>479</v>
       </c>
@@ -9282,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>481</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -9312,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -9327,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -9342,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -9357,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -9372,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -9387,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -9402,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -9417,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -9432,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -9462,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -9477,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -9510,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -9525,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -9540,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>514</v>
       </c>
@@ -9555,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>515</v>
       </c>
@@ -9570,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>517</v>
       </c>
@@ -9588,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>519</v>
       </c>
@@ -9603,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>521</v>
       </c>
@@ -9618,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>523</v>
       </c>
@@ -9633,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>525</v>
       </c>
@@ -9648,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>527</v>
       </c>
@@ -9663,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>529</v>
       </c>
@@ -9678,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>531</v>
       </c>
@@ -9693,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>533</v>
       </c>
@@ -9708,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>535</v>
       </c>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>537</v>
       </c>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>539</v>
       </c>
@@ -9753,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>541</v>
       </c>
@@ -9768,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>543</v>
       </c>
@@ -9783,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>545</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>547</v>
       </c>
@@ -9813,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>549</v>
       </c>
@@ -9828,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>551</v>
       </c>
@@ -9843,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>553</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>555</v>
       </c>
@@ -9873,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>557</v>
       </c>
@@ -9888,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>559</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>561</v>
       </c>
@@ -9918,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>563</v>
       </c>
@@ -9933,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>565</v>
       </c>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>567</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>569</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>571</v>
       </c>
@@ -9996,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>573</v>
       </c>
@@ -10011,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>575</v>
       </c>
@@ -10026,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>577</v>
       </c>
@@ -10041,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>579</v>
       </c>
@@ -10056,7 +10058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>581</v>
       </c>
@@ -10071,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>583</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>585</v>
       </c>
@@ -10101,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>587</v>
       </c>
@@ -10116,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>589</v>
       </c>
@@ -10131,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>591</v>
       </c>
@@ -10146,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>593</v>
       </c>
@@ -10161,7 +10163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>595</v>
       </c>
@@ -10176,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>597</v>
       </c>
@@ -10191,7 +10193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>599</v>
       </c>
@@ -10206,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>601</v>
       </c>
@@ -10221,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>603</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>605</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>607</v>
       </c>
@@ -10266,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>609</v>
       </c>
@@ -10281,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>611</v>
       </c>
@@ -10299,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>613</v>
       </c>
@@ -10314,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>615</v>
       </c>
@@ -10329,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>617</v>
       </c>
@@ -10347,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>619</v>
       </c>
@@ -10362,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>621</v>
       </c>
@@ -10377,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>623</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>625</v>
       </c>
@@ -10407,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>627</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>629</v>
       </c>
@@ -10437,7 +10439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>631</v>
       </c>
@@ -10452,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>633</v>
       </c>
@@ -10470,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>635</v>
       </c>
@@ -10485,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>637</v>
       </c>
@@ -10500,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>639</v>
       </c>
@@ -10515,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>641</v>
       </c>
@@ -10530,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>643</v>
       </c>
@@ -10545,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>645</v>
       </c>
@@ -10560,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>647</v>
       </c>
@@ -10575,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>649</v>
       </c>
@@ -10593,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>651</v>
       </c>
@@ -10608,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>653</v>
       </c>
@@ -10623,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>655</v>
       </c>
@@ -10638,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>657</v>
       </c>
@@ -10653,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>659</v>
       </c>
@@ -10668,7 +10670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>661</v>
       </c>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>663</v>
       </c>
@@ -10698,7 +10700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>665</v>
       </c>
@@ -10713,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>667</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>669</v>
       </c>
@@ -10746,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>671</v>
       </c>
@@ -10761,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>673</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>675</v>
       </c>
@@ -10794,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>677</v>
       </c>
@@ -10812,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>679</v>
       </c>
@@ -10827,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>681</v>
       </c>
@@ -10845,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>683</v>
       </c>
@@ -10860,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>685</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>687</v>
       </c>
@@ -10890,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>689</v>
       </c>
@@ -10905,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>691</v>
       </c>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>693</v>
       </c>
@@ -10935,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>695</v>
       </c>
@@ -10950,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>697</v>
       </c>
@@ -10965,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>699</v>
       </c>
@@ -10980,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>701</v>
       </c>
@@ -10995,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>703</v>
       </c>
@@ -11010,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>705</v>
       </c>
@@ -11025,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>707</v>
       </c>
@@ -11040,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>709</v>
       </c>
@@ -11055,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>711</v>
       </c>
@@ -11070,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>713</v>
       </c>
@@ -11085,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>715</v>
       </c>
@@ -11103,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>717</v>
       </c>
@@ -11118,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>719</v>
       </c>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>721</v>
       </c>
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>723</v>
       </c>
@@ -11166,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>725</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>727</v>
       </c>
@@ -11196,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>729</v>
       </c>
@@ -11211,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>731</v>
       </c>
@@ -11226,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>733</v>
       </c>
@@ -11241,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>735</v>
       </c>
@@ -11256,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>737</v>
       </c>
@@ -11271,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>739</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>741</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>743</v>
       </c>
@@ -11316,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>745</v>
       </c>
@@ -11331,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>747</v>
       </c>
@@ -11346,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>749</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>751</v>
       </c>
@@ -11376,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>753</v>
       </c>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>755</v>
       </c>
@@ -11406,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>757</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>759</v>
       </c>
@@ -11436,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>761</v>
       </c>
@@ -11451,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>763</v>
       </c>
@@ -11466,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>765</v>
       </c>
@@ -11481,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>767</v>
       </c>
@@ -11496,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -11511,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>771</v>
       </c>
@@ -11526,7 +11528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>773</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>775</v>
       </c>
@@ -11556,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>777</v>
       </c>
@@ -11571,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>779</v>
       </c>
@@ -11586,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>781</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>783</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>785</v>
       </c>
@@ -11634,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>787</v>
       </c>
@@ -11649,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>789</v>
       </c>
@@ -11667,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>791</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>793</v>
       </c>
@@ -11697,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>795</v>
       </c>
@@ -11712,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>797</v>
       </c>
@@ -11727,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>799</v>
       </c>
@@ -11742,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>801</v>
       </c>
@@ -11757,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>803</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>805</v>
       </c>
@@ -11790,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>807</v>
       </c>
@@ -11805,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>809</v>
       </c>
@@ -11820,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>811</v>
       </c>
@@ -11835,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>813</v>
       </c>
@@ -11850,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>815</v>
       </c>
@@ -11865,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>817</v>
       </c>
@@ -11880,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>819</v>
       </c>
@@ -11895,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>821</v>
       </c>
@@ -11910,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>823</v>
       </c>
@@ -11925,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>825</v>
       </c>
@@ -11940,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>827</v>
       </c>
@@ -11955,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>829</v>
       </c>
@@ -11970,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>831</v>
       </c>
@@ -11985,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>833</v>
       </c>
@@ -12003,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>835</v>
       </c>
@@ -12018,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>837</v>
       </c>
@@ -12033,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>839</v>
       </c>
@@ -12048,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>841</v>
       </c>
@@ -12063,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>843</v>
       </c>
@@ -12078,7 +12080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>845</v>
       </c>
@@ -12093,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>847</v>
       </c>
@@ -12108,7 +12110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>849</v>
       </c>
@@ -12123,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>851</v>
       </c>
@@ -12138,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>853</v>
       </c>
@@ -12153,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>855</v>
       </c>
@@ -12168,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>857</v>
       </c>
@@ -12183,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>859</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>861</v>
       </c>
@@ -12213,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>863</v>
       </c>
@@ -12228,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>865</v>
       </c>
@@ -12243,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>867</v>
       </c>
@@ -12258,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>869</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>871</v>
       </c>
@@ -12288,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>873</v>
       </c>
@@ -12303,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>875</v>
       </c>
@@ -12318,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>877</v>
       </c>
@@ -12333,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>879</v>
       </c>
@@ -12348,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>881</v>
       </c>
@@ -12363,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>883</v>
       </c>
@@ -12378,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>885</v>
       </c>
@@ -12393,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>887</v>
       </c>
@@ -12408,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>889</v>
       </c>
@@ -12426,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>891</v>
       </c>
@@ -12441,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>893</v>
       </c>
@@ -12456,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>895</v>
       </c>
@@ -12471,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>897</v>
       </c>
@@ -12486,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>899</v>
       </c>
@@ -12501,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>901</v>
       </c>
@@ -12516,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>903</v>
       </c>
@@ -12531,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>905</v>
       </c>
@@ -12546,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>907</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>909</v>
       </c>
@@ -12576,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>911</v>
       </c>
@@ -12591,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>913</v>
       </c>
@@ -12606,7 +12608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>915</v>
       </c>
@@ -12621,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>917</v>
       </c>
@@ -12636,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>919</v>
       </c>
@@ -12651,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>921</v>
       </c>
@@ -12666,7 +12668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>923</v>
       </c>
@@ -12681,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>925</v>
       </c>
@@ -12699,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>927</v>
       </c>
@@ -12714,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>929</v>
       </c>
@@ -12732,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>931</v>
       </c>
@@ -12747,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>933</v>
       </c>
@@ -12762,7 +12764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>935</v>
       </c>
@@ -12777,7 +12779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>937</v>
       </c>
@@ -12792,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>939</v>
       </c>
@@ -12807,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>941</v>
       </c>
@@ -12822,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>943</v>
       </c>
@@ -12837,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>945</v>
       </c>
@@ -12852,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>947</v>
       </c>
@@ -12867,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>949</v>
       </c>
@@ -12882,7 +12884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>951</v>
       </c>
@@ -12897,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>953</v>
       </c>
@@ -12915,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>955</v>
       </c>
@@ -12930,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>957</v>
       </c>
@@ -12945,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>959</v>
       </c>
@@ -12960,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>961</v>
       </c>
@@ -12975,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>963</v>
       </c>
@@ -12990,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>965</v>
       </c>
@@ -13005,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>967</v>
       </c>
@@ -13023,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>969</v>
       </c>
@@ -13038,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>971</v>
       </c>
@@ -13053,7 +13055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>973</v>
       </c>
@@ -13068,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>975</v>
       </c>
@@ -13083,7 +13085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>977</v>
       </c>
@@ -13098,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>979</v>
       </c>
@@ -13113,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>981</v>
       </c>
@@ -13131,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>983</v>
       </c>
@@ -13146,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>985</v>
       </c>
@@ -13164,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>987</v>
       </c>
@@ -13182,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>989</v>
       </c>
@@ -13197,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>991</v>
       </c>
@@ -13212,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>993</v>
       </c>
@@ -13227,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>995</v>
       </c>
@@ -13242,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>997</v>
       </c>
@@ -13260,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>999</v>
       </c>
@@ -13278,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>1001</v>
       </c>
@@ -13296,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>1003</v>
       </c>
@@ -13311,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1005</v>
       </c>
@@ -13326,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1007</v>
       </c>
@@ -13341,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1009</v>
       </c>
@@ -13359,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1010</v>
       </c>
@@ -13377,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1012</v>
       </c>
@@ -13392,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1014</v>
       </c>
@@ -13407,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1016</v>
       </c>
@@ -13422,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1018</v>
       </c>
@@ -13437,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1020</v>
       </c>
@@ -13452,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1022</v>
       </c>
@@ -13470,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1024</v>
       </c>
@@ -13485,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1026</v>
       </c>
@@ -13500,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1028</v>
       </c>
@@ -13515,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1030</v>
       </c>
@@ -13530,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1032</v>
       </c>
@@ -13545,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1034</v>
       </c>
@@ -13560,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1036</v>
       </c>
@@ -13575,7 +13577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1038</v>
       </c>
@@ -13590,7 +13592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1040</v>
       </c>
@@ -13605,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1042</v>
       </c>
@@ -13620,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1044</v>
       </c>
@@ -13638,7 +13640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1046</v>
       </c>
@@ -13653,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1048</v>
       </c>
@@ -13668,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1050</v>
       </c>
@@ -13683,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1052</v>
       </c>
@@ -13698,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1054</v>
       </c>
@@ -13716,7 +13718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1056</v>
       </c>
@@ -13731,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1058</v>
       </c>
@@ -13746,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1060</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1062</v>
       </c>
@@ -13776,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1064</v>
       </c>
@@ -13791,7 +13793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1066</v>
       </c>
@@ -13806,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1068</v>
       </c>
@@ -13821,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1070</v>
       </c>
@@ -13836,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1072</v>
       </c>
@@ -13854,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1074</v>
       </c>
@@ -13869,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1076</v>
       </c>
@@ -13884,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1078</v>
       </c>
@@ -13899,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1080</v>
       </c>
@@ -13914,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1082</v>
       </c>
@@ -13929,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1084</v>
       </c>
@@ -13947,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1086</v>
       </c>
@@ -13962,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1088</v>
       </c>
@@ -13980,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1090</v>
       </c>
@@ -13995,7 +13997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1092</v>
       </c>
@@ -14010,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1094</v>
       </c>
@@ -14025,7 +14027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1096</v>
       </c>
@@ -14040,7 +14042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1098</v>
       </c>
@@ -14055,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1100</v>
       </c>
@@ -14070,7 +14072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1102</v>
       </c>
@@ -14085,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1104</v>
       </c>
@@ -14100,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1106</v>
       </c>
@@ -14115,7 +14117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1108</v>
       </c>
@@ -14130,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1110</v>
       </c>
@@ -14145,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1112</v>
       </c>
@@ -14160,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1114</v>
       </c>
@@ -14175,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1116</v>
       </c>
@@ -14190,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1118</v>
       </c>
@@ -14205,7 +14207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1120</v>
       </c>
@@ -14220,7 +14222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1122</v>
       </c>
@@ -14235,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1124</v>
       </c>
@@ -14250,7 +14252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1126</v>
       </c>
@@ -14265,7 +14267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1128</v>
       </c>
@@ -14280,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1130</v>
       </c>
@@ -14295,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1132</v>
       </c>
@@ -14313,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1134</v>
       </c>
@@ -14331,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1136</v>
       </c>
@@ -14346,7 +14348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1138</v>
       </c>
@@ -14364,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1140</v>
       </c>
@@ -14379,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1142</v>
       </c>
@@ -14394,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1144</v>
       </c>
@@ -14412,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1146</v>
       </c>
@@ -14427,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1148</v>
       </c>
@@ -14442,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1150</v>
       </c>
@@ -14457,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1152</v>
       </c>
@@ -14472,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1154</v>
       </c>
@@ -14487,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1156</v>
       </c>
@@ -14502,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1158</v>
       </c>
@@ -14517,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1160</v>
       </c>
@@ -14532,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1162</v>
       </c>
@@ -14547,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1164</v>
       </c>
@@ -14562,7 +14564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1166</v>
       </c>
@@ -14577,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1168</v>
       </c>
@@ -14592,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1170</v>
       </c>
@@ -14607,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1172</v>
       </c>
@@ -14622,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1174</v>
       </c>
@@ -14637,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1176</v>
       </c>
@@ -14652,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1178</v>
       </c>
@@ -14667,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1180</v>
       </c>
@@ -14682,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1182</v>
       </c>
@@ -14700,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1184</v>
       </c>
@@ -14715,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1186</v>
       </c>
@@ -14730,7 +14732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1188</v>
       </c>
@@ -14745,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1190</v>
       </c>
@@ -14760,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1192</v>
       </c>
@@ -14775,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1194</v>
       </c>
@@ -14790,7 +14792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1196</v>
       </c>
@@ -14805,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1198</v>
       </c>
@@ -14820,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1200</v>
       </c>
@@ -14835,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1202</v>
       </c>
@@ -14850,7 +14852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1204</v>
       </c>
@@ -14865,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1206</v>
       </c>
@@ -14880,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1208</v>
       </c>
@@ -14895,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1210</v>
       </c>
@@ -14913,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1212</v>
       </c>
@@ -14928,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1214</v>
       </c>
@@ -14943,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1216</v>
       </c>
@@ -14958,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1218</v>
       </c>
@@ -14973,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1220</v>
       </c>
@@ -14988,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1222</v>
       </c>
@@ -15003,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1224</v>
       </c>
@@ -15018,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1226</v>
       </c>
@@ -15033,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1228</v>
       </c>
@@ -15048,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1230</v>
       </c>
@@ -15063,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1232</v>
       </c>
@@ -15078,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1234</v>
       </c>
@@ -15093,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1236</v>
       </c>
@@ -15108,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1238</v>
       </c>
@@ -15123,7 +15125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1240</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1242</v>
       </c>
@@ -15153,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1243</v>
       </c>
@@ -15168,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1245</v>
       </c>
@@ -15183,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1247</v>
       </c>
@@ -15198,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1249</v>
       </c>
@@ -15213,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1251</v>
       </c>
@@ -15228,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1253</v>
       </c>
@@ -15243,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1255</v>
       </c>
@@ -15258,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1257</v>
       </c>
@@ -15273,7 +15275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1259</v>
       </c>
@@ -15288,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1261</v>
       </c>
@@ -15303,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1263</v>
       </c>
@@ -15318,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1265</v>
       </c>
@@ -15333,7 +15335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1267</v>
       </c>
@@ -15348,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1269</v>
       </c>
@@ -15363,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1271</v>
       </c>
@@ -15378,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1273</v>
       </c>
@@ -15393,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1275</v>
       </c>
@@ -15408,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1277</v>
       </c>
@@ -15423,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1279</v>
       </c>
@@ -15438,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1281</v>
       </c>
@@ -15453,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1283</v>
       </c>
@@ -15468,7 +15470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1285</v>
       </c>
@@ -15483,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1287</v>
       </c>
@@ -15498,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1289</v>
       </c>
@@ -15513,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1291</v>
       </c>
@@ -15528,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1293</v>
       </c>
@@ -15543,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1295</v>
       </c>
@@ -15558,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1297</v>
       </c>
@@ -15573,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1299</v>
       </c>
@@ -15591,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1301</v>
       </c>
@@ -15609,7 +15611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1303</v>
       </c>
@@ -15624,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1304</v>
       </c>
@@ -15639,7 +15641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1306</v>
       </c>
@@ -15654,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1308</v>
       </c>
@@ -15669,7 +15671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1310</v>
       </c>
@@ -15684,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1312</v>
       </c>
@@ -15702,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1314</v>
       </c>
@@ -15717,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1316</v>
       </c>
@@ -15735,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1318</v>
       </c>
@@ -15750,7 +15752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1320</v>
       </c>
@@ -15765,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1322</v>
       </c>
@@ -15780,7 +15782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1324</v>
       </c>
@@ -15795,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1326</v>
       </c>
@@ -15810,7 +15812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1328</v>
       </c>
@@ -15825,7 +15827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1330</v>
       </c>
@@ -15840,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1332</v>
       </c>
@@ -15855,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1334</v>
       </c>
@@ -15870,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1336</v>
       </c>
@@ -15885,7 +15887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1338</v>
       </c>
@@ -15903,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1340</v>
       </c>
@@ -15921,7 +15923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1342</v>
       </c>
@@ -15939,7 +15941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1344</v>
       </c>
@@ -15954,7 +15956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1346</v>
       </c>
@@ -15969,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1348</v>
       </c>
@@ -15984,7 +15986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1350</v>
       </c>
@@ -15999,7 +16001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1352</v>
       </c>
@@ -16014,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1354</v>
       </c>
@@ -16029,7 +16031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1356</v>
       </c>
@@ -16047,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1357</v>
       </c>
@@ -16062,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1359</v>
       </c>
@@ -16077,7 +16079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1361</v>
       </c>
@@ -16092,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1363</v>
       </c>
@@ -16110,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1365</v>
       </c>
@@ -16125,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1367</v>
       </c>
@@ -16140,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1369</v>
       </c>
@@ -16155,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1371</v>
       </c>
@@ -16170,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1373</v>
       </c>
@@ -16185,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1375</v>
       </c>
@@ -16200,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1376</v>
       </c>
@@ -16215,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1378</v>
       </c>
@@ -16230,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1380</v>
       </c>
@@ -16245,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1382</v>
       </c>
@@ -16260,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1384</v>
       </c>
@@ -16275,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1385</v>
       </c>
@@ -16290,7 +16292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1387</v>
       </c>
@@ -16305,7 +16307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1389</v>
       </c>
@@ -16320,7 +16322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1391</v>
       </c>
@@ -16335,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1393</v>
       </c>
@@ -16350,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1395</v>
       </c>
@@ -16365,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1397</v>
       </c>
@@ -16380,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1399</v>
       </c>
@@ -16395,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1401</v>
       </c>
@@ -16410,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1403</v>
       </c>
@@ -16425,7 +16427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1405</v>
       </c>
@@ -16440,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1407</v>
       </c>
@@ -16455,7 +16457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1409</v>
       </c>
@@ -16473,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1411</v>
       </c>
@@ -16488,7 +16490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1413</v>
       </c>
@@ -16503,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1415</v>
       </c>
@@ -16518,7 +16520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1417</v>
       </c>
@@ -16533,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1419</v>
       </c>
@@ -16548,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1421</v>
       </c>
@@ -16566,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1423</v>
       </c>
@@ -16581,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1425</v>
       </c>
@@ -16596,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1427</v>
       </c>
@@ -16614,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1429</v>
       </c>
@@ -16629,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1431</v>
       </c>
@@ -16644,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1433</v>
       </c>
@@ -16659,7 +16661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1435</v>
       </c>
@@ -16674,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1437</v>
       </c>
@@ -16689,7 +16691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1439</v>
       </c>
@@ -16704,7 +16706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1441</v>
       </c>
@@ -16722,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1443</v>
       </c>
@@ -16737,7 +16739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1445</v>
       </c>
@@ -16752,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1447</v>
       </c>
@@ -16767,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1449</v>
       </c>
@@ -16782,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1451</v>
       </c>
@@ -16800,7 +16802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1453</v>
       </c>
@@ -16815,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1455</v>
       </c>
@@ -16830,7 +16832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1457</v>
       </c>
@@ -16845,7 +16847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1459</v>
       </c>
@@ -16860,7 +16862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1461</v>
       </c>
@@ -16875,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1463</v>
       </c>
@@ -16890,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1465</v>
       </c>
@@ -16908,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1467</v>
       </c>
@@ -16923,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1469</v>
       </c>
@@ -16941,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1471</v>
       </c>
@@ -16956,7 +16958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1473</v>
       </c>
@@ -16974,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1475</v>
       </c>
@@ -16989,7 +16991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1477</v>
       </c>
@@ -17004,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1479</v>
       </c>
@@ -17019,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1481</v>
       </c>
@@ -17034,7 +17036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1483</v>
       </c>
@@ -17049,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1485</v>
       </c>
@@ -17064,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1487</v>
       </c>
@@ -17079,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1489</v>
       </c>
@@ -17097,7 +17099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1491</v>
       </c>
@@ -17115,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1493</v>
       </c>
@@ -17130,7 +17132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1495</v>
       </c>
@@ -17148,7 +17150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1497</v>
       </c>
@@ -17163,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1499</v>
       </c>
@@ -17178,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1501</v>
       </c>
@@ -17193,7 +17195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1503</v>
       </c>
@@ -17208,7 +17210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1505</v>
       </c>
@@ -17223,7 +17225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1507</v>
       </c>
@@ -17241,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1509</v>
       </c>
@@ -17256,7 +17258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1511</v>
       </c>
@@ -17271,7 +17273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1513</v>
       </c>
@@ -17286,7 +17288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1515</v>
       </c>
@@ -17304,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1517</v>
       </c>
@@ -17319,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1519</v>
       </c>
@@ -17334,7 +17336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1521</v>
       </c>
@@ -17349,7 +17351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1523</v>
       </c>
@@ -17367,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1525</v>
       </c>
@@ -17382,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1527</v>
       </c>
@@ -17397,7 +17399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1529</v>
       </c>
@@ -17412,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1531</v>
       </c>
@@ -17427,7 +17429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1533</v>
       </c>
@@ -17442,7 +17444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1535</v>
       </c>
@@ -17457,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1537</v>
       </c>
@@ -17472,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1539</v>
       </c>
@@ -17490,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1541</v>
       </c>
@@ -17505,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>1543</v>
       </c>
@@ -17520,7 +17522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>1545</v>
       </c>
@@ -17535,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>1547</v>
       </c>
@@ -17550,7 +17552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>1549</v>
       </c>
@@ -17565,7 +17567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>1551</v>
       </c>
@@ -17580,7 +17582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>1553</v>
       </c>
@@ -17595,7 +17597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>1554</v>
       </c>
@@ -17610,7 +17612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>1556</v>
       </c>
@@ -17625,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>1558</v>
       </c>
@@ -17640,7 +17642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>1560</v>
       </c>
@@ -17655,7 +17657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>1562</v>
       </c>
@@ -17670,7 +17672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>1564</v>
       </c>
@@ -17685,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>1566</v>
       </c>
@@ -17700,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>1568</v>
       </c>
@@ -17715,7 +17717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>1570</v>
       </c>
@@ -17730,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>1572</v>
       </c>
@@ -17745,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>1574</v>
       </c>
@@ -17760,7 +17762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>1576</v>
       </c>
@@ -17775,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>1578</v>
       </c>
@@ -17790,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>1580</v>
       </c>
@@ -17805,7 +17807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>1582</v>
       </c>
@@ -17820,7 +17822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>1584</v>
       </c>
@@ -17835,7 +17837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>1586</v>
       </c>
@@ -17850,7 +17852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>1588</v>
       </c>
@@ -17865,7 +17867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>1590</v>
       </c>
@@ -17880,7 +17882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>1592</v>
       </c>
@@ -17895,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>1594</v>
       </c>
@@ -17910,7 +17912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>1596</v>
       </c>
@@ -17925,7 +17927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>1598</v>
       </c>
@@ -17940,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>1600</v>
       </c>
@@ -17955,7 +17957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>1602</v>
       </c>
@@ -17970,7 +17972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>1604</v>
       </c>
@@ -17985,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>1606</v>
       </c>
@@ -18003,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>1608</v>
       </c>
@@ -18021,7 +18023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>1610</v>
       </c>
@@ -18036,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>1612</v>
       </c>
@@ -18051,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>1614</v>
       </c>
@@ -18066,7 +18068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>1616</v>
       </c>
@@ -18081,7 +18083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>1618</v>
       </c>
@@ -18096,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>1620</v>
       </c>
@@ -18111,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>1621</v>
       </c>
@@ -18129,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>1623</v>
       </c>
@@ -18144,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>1625</v>
       </c>
@@ -18159,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" t="s">
         <v>1627</v>
       </c>
@@ -18174,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" t="s">
         <v>1629</v>
       </c>
@@ -18189,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" t="s">
         <v>1631</v>
       </c>
@@ -18204,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" t="s">
         <v>1633</v>
       </c>
@@ -18222,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" t="s">
         <v>1635</v>
       </c>
@@ -18240,7 +18242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" t="s">
         <v>1637</v>
       </c>
@@ -18255,7 +18257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" t="s">
         <v>1639</v>
       </c>
@@ -18270,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" t="s">
         <v>1641</v>
       </c>
@@ -18285,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" t="s">
         <v>1643</v>
       </c>
@@ -18300,7 +18302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" t="s">
         <v>1645</v>
       </c>
@@ -18315,7 +18317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" t="s">
         <v>1647</v>
       </c>
@@ -18330,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" t="s">
         <v>1649</v>
       </c>
@@ -18345,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" t="s">
         <v>1651</v>
       </c>
@@ -18360,7 +18362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" t="s">
         <v>1653</v>
       </c>
@@ -18375,7 +18377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" t="s">
         <v>1655</v>
       </c>
@@ -18390,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" t="s">
         <v>1657</v>
       </c>
@@ -18405,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" t="s">
         <v>1659</v>
       </c>
@@ -18420,7 +18422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" t="s">
         <v>1661</v>
       </c>
@@ -18435,7 +18437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" t="s">
         <v>1662</v>
       </c>
@@ -18450,7 +18452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" t="s">
         <v>1664</v>
       </c>
@@ -18465,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" t="s">
         <v>1666</v>
       </c>
@@ -18480,7 +18482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" t="s">
         <v>1668</v>
       </c>
@@ -18495,7 +18497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" t="s">
         <v>1670</v>
       </c>
@@ -18510,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" t="s">
         <v>1672</v>
       </c>
@@ -18525,7 +18527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" t="s">
         <v>1674</v>
       </c>
@@ -18543,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" t="s">
         <v>1676</v>
       </c>
@@ -18558,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" t="s">
         <v>1678</v>
       </c>
@@ -18573,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" t="s">
         <v>1680</v>
       </c>
@@ -18588,7 +18590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" t="s">
         <v>1682</v>
       </c>
@@ -18606,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" t="s">
         <v>1684</v>
       </c>
@@ -18621,7 +18623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" t="s">
         <v>1686</v>
       </c>
@@ -18636,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" t="s">
         <v>1688</v>
       </c>
@@ -18651,7 +18653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" t="s">
         <v>1690</v>
       </c>
@@ -18666,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" t="s">
         <v>1692</v>
       </c>
@@ -18681,7 +18683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" t="s">
         <v>1694</v>
       </c>
@@ -18696,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" t="s">
         <v>1696</v>
       </c>
@@ -18711,7 +18713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" t="s">
         <v>1698</v>
       </c>
@@ -18729,7 +18731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" t="s">
         <v>1700</v>
       </c>
@@ -18744,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" t="s">
         <v>1702</v>
       </c>
@@ -18759,7 +18761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" t="s">
         <v>1704</v>
       </c>
@@ -18777,7 +18779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" t="s">
         <v>1706</v>
       </c>
@@ -18792,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" t="s">
         <v>1708</v>
       </c>
@@ -18807,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" t="s">
         <v>1710</v>
       </c>
@@ -18822,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" t="s">
         <v>1712</v>
       </c>
@@ -18837,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" t="s">
         <v>1714</v>
       </c>
@@ -18852,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" t="s">
         <v>1716</v>
       </c>
@@ -18867,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" t="s">
         <v>1718</v>
       </c>
@@ -18885,7 +18887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" t="s">
         <v>1720</v>
       </c>
@@ -18903,7 +18905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" t="s">
         <v>1722</v>
       </c>
@@ -18922,16 +18924,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F868" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F868" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
